--- a/si/quad/Quad.xlsx
+++ b/si/quad/Quad.xlsx
@@ -2,16 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr showPivotChartFilter="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="14790" windowHeight="8280" tabRatio="628" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="AB-ABFSTT 3 - D" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="AB-ABFSTT 3 - D" sheetId="2" r:id="rId1"/>
     <sheet name="AB-ABFSTT 3 - T" sheetId="7" state="hidden" r:id="rId2"/>
     <sheet name="AB-ABFSTT 3 - W" sheetId="8" r:id="rId3"/>
-    <sheet name="AB-ABFSTT 4 - D" sheetId="9" state="hidden" r:id="rId4"/>
-    <sheet name="AB-ABFSTT 4 - T" sheetId="13" state="hidden" r:id="rId5"/>
+    <sheet name="AB-ABFSTT 4 - D" sheetId="9" r:id="rId4"/>
+    <sheet name="AB-ABFSTT 4 - T" sheetId="13" r:id="rId5"/>
     <sheet name="AB-ABFSTT 4 - W" sheetId="14" r:id="rId6"/>
     <sheet name="ABFSTT-NS 3 - D" sheetId="10" state="hidden" r:id="rId7"/>
     <sheet name="ABFSTT-NS 3 - T" sheetId="11" state="hidden" r:id="rId8"/>
@@ -22,22 +22,16 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId13"/>
-    <pivotCache cacheId="9" r:id="rId14"/>
-    <pivotCache cacheId="13" r:id="rId15"/>
-    <pivotCache cacheId="17" r:id="rId16"/>
+    <pivotCache cacheId="3" r:id="rId13"/>
+    <pivotCache cacheId="6" r:id="rId14"/>
+    <pivotCache cacheId="9" r:id="rId15"/>
+    <pivotCache cacheId="12" r:id="rId16"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">AlfaBetaFSTT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NegaScout </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="10">
   <si>
     <t>Algorytm</t>
   </si>
@@ -151,6 +145,18 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -268,44 +274,86 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>4257</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>7899</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>4148</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>4190</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>4959</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>4706</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>8769</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>8779</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>4368</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>6183</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>8866</c:v>
+                </c:pt>
                 <c:pt idx="11">
                   <c:v>15399</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>6182</c:v>
+                </c:pt>
                 <c:pt idx="13">
                   <c:v>9086</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>5612</c:v>
+                </c:pt>
                 <c:pt idx="15">
                   <c:v>4073</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>4806</c:v>
+                </c:pt>
                 <c:pt idx="17">
                   <c:v>3230</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>5128</c:v>
+                </c:pt>
                 <c:pt idx="19">
                   <c:v>4662</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>7670</c:v>
+                </c:pt>
                 <c:pt idx="21">
                   <c:v>6900</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>3170</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>1385</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>278</c:v>
+                </c:pt>
                 <c:pt idx="25">
                   <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -426,41 +474,80 @@
                 <c:pt idx="0">
                   <c:v>4514</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>5960</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>4279</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>4433</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>5008</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>4264</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>5268</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2923</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>3871</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>4144</c:v>
+                </c:pt>
                 <c:pt idx="10">
                   <c:v>6600</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2922</c:v>
+                </c:pt>
                 <c:pt idx="12">
                   <c:v>4761</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>3505</c:v>
+                </c:pt>
                 <c:pt idx="14">
                   <c:v>3223</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>2742</c:v>
+                </c:pt>
                 <c:pt idx="16">
                   <c:v>4069</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>2651</c:v>
+                </c:pt>
                 <c:pt idx="18">
                   <c:v>3456</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>3827</c:v>
+                </c:pt>
                 <c:pt idx="20">
                   <c:v>3433</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>5136</c:v>
+                </c:pt>
                 <c:pt idx="22">
                   <c:v>2869</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>1339</c:v>
+                </c:pt>
                 <c:pt idx="24">
                   <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>294</c:v>
@@ -470,24 +557,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84990208"/>
-        <c:axId val="84992000"/>
+        <c:axId val="90798720"/>
+        <c:axId val="90820992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84990208"/>
+        <c:axId val="90798720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84992000"/>
+        <c:crossAx val="90820992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84992000"/>
+        <c:axId val="90820992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +582,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84990208"/>
+        <c:crossAx val="90798720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -925,24 +1012,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113543808"/>
-        <c:axId val="113549696"/>
+        <c:axId val="91508736"/>
+        <c:axId val="91510272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113543808"/>
+        <c:axId val="91508736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113549696"/>
+        <c:crossAx val="91510272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113549696"/>
+        <c:axId val="91510272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -950,7 +1037,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113543808"/>
+        <c:crossAx val="91508736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1115,44 +1202,86 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>4514</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>5960</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>4279</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>4433</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>5008</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>4264</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>5268</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>2923</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>3871</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>4144</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>6600</c:v>
+                </c:pt>
                 <c:pt idx="11">
                   <c:v>2922</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>4761</c:v>
+                </c:pt>
                 <c:pt idx="13">
                   <c:v>3505</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>3223</c:v>
+                </c:pt>
                 <c:pt idx="15">
                   <c:v>2742</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>4069</c:v>
+                </c:pt>
                 <c:pt idx="17">
                   <c:v>2651</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>3456</c:v>
+                </c:pt>
                 <c:pt idx="19">
                   <c:v>3827</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>3433</c:v>
+                </c:pt>
                 <c:pt idx="21">
                   <c:v>5136</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>2869</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>1339</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>321</c:v>
+                </c:pt>
                 <c:pt idx="25">
                   <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1273,41 +1402,80 @@
                 <c:pt idx="0">
                   <c:v>4515</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>4753</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>4224</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>4547</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>4160</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>4442</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>4660</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2932</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>3734</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>3832</c:v>
+                </c:pt>
                 <c:pt idx="10">
                   <c:v>5977</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2921</c:v>
+                </c:pt>
                 <c:pt idx="12">
                   <c:v>4182</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>3430</c:v>
+                </c:pt>
                 <c:pt idx="14">
                   <c:v>3039</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>2743</c:v>
+                </c:pt>
                 <c:pt idx="16">
                   <c:v>3018</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>2571</c:v>
+                </c:pt>
                 <c:pt idx="18">
                   <c:v>2694</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>3082</c:v>
+                </c:pt>
                 <c:pt idx="20">
                   <c:v>3134</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>3526</c:v>
+                </c:pt>
                 <c:pt idx="22">
                   <c:v>2621</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>1192</c:v>
+                </c:pt>
                 <c:pt idx="24">
                   <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>294</c:v>
@@ -1317,24 +1485,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109599744"/>
-        <c:axId val="109605632"/>
+        <c:axId val="91691648"/>
+        <c:axId val="91709824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109599744"/>
+        <c:axId val="91691648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109605632"/>
+        <c:crossAx val="91709824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109605632"/>
+        <c:axId val="91709824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,7 +1510,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109599744"/>
+        <c:crossAx val="91691648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1390,6 +1558,18 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1404,7 +1584,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AlfaBetaFSTT </c:v>
+                  <c:v>AlfaBetaFSTT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1528,53 +1708,104 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>17476</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>27658</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>23911</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>22427</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>24851</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>21856</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>16787</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>12066</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>13704</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>26289</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>5165</c:v>
+                </c:pt>
                 <c:pt idx="11">
                   <c:v>22934</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>11216</c:v>
+                </c:pt>
                 <c:pt idx="13">
                   <c:v>8683</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>22243</c:v>
+                </c:pt>
                 <c:pt idx="15">
                   <c:v>16626</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>7985</c:v>
+                </c:pt>
                 <c:pt idx="17">
                   <c:v>18835</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>45674</c:v>
+                </c:pt>
                 <c:pt idx="19">
                   <c:v>9301</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>8129</c:v>
+                </c:pt>
                 <c:pt idx="21">
                   <c:v>1768</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>15978</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>5849</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>2197</c:v>
+                </c:pt>
                 <c:pt idx="25">
                   <c:v>1080</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>2046</c:v>
+                </c:pt>
                 <c:pt idx="27">
                   <c:v>4154</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>2210</c:v>
+                </c:pt>
                 <c:pt idx="29">
                   <c:v>3995</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>16881</c:v>
+                </c:pt>
                 <c:pt idx="31">
                   <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1244</c:v>
@@ -1592,7 +1823,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NegaScout </c:v>
+                  <c:v>NegaScout</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1719,77 +1950,128 @@
                 <c:pt idx="0">
                   <c:v>16269</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>26104</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>19810</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>22921</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>24172</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>21827</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>17109</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>11465</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>11459</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>26800</c:v>
+                </c:pt>
                 <c:pt idx="10">
                   <c:v>6579</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>24688</c:v>
+                </c:pt>
                 <c:pt idx="12">
                   <c:v>10466</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>6172</c:v>
+                </c:pt>
                 <c:pt idx="14">
                   <c:v>21156</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>17584</c:v>
+                </c:pt>
                 <c:pt idx="16">
                   <c:v>6735</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>17039</c:v>
+                </c:pt>
                 <c:pt idx="18">
                   <c:v>36308</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>8372</c:v>
+                </c:pt>
                 <c:pt idx="20">
                   <c:v>7733</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>1827</c:v>
+                </c:pt>
                 <c:pt idx="22">
                   <c:v>15263</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>5304</c:v>
+                </c:pt>
                 <c:pt idx="24">
                   <c:v>2010</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>1050</c:v>
+                </c:pt>
                 <c:pt idx="26">
                   <c:v>1765</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>4119</c:v>
+                </c:pt>
                 <c:pt idx="28">
                   <c:v>1962</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>3117</c:v>
+                </c:pt>
                 <c:pt idx="30">
                   <c:v>11731</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>2152</c:v>
+                </c:pt>
                 <c:pt idx="32">
                   <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75146752"/>
-        <c:axId val="78774272"/>
+        <c:axId val="91807744"/>
+        <c:axId val="91809280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75146752"/>
+        <c:axId val="91807744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78774272"/>
+        <c:crossAx val="91809280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78774272"/>
+        <c:axId val="91809280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1797,7 +2079,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75146752"/>
+        <c:crossAx val="91807744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1838,7 +2120,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="83" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1965,163 +2247,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Marcin Mikołajczak" refreshedDate="39262.023934606485" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="34">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C35" sheet="ABFSTT-NS 4 - D"/>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="Tura" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="34" count="34">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-        <n v="6"/>
-        <n v="7"/>
-        <n v="8"/>
-        <n v="9"/>
-        <n v="10"/>
-        <n v="11"/>
-        <n v="12"/>
-        <n v="13"/>
-        <n v="14"/>
-        <n v="15"/>
-        <n v="16"/>
-        <n v="17"/>
-        <n v="18"/>
-        <n v="19"/>
-        <n v="20"/>
-        <n v="21"/>
-        <n v="22"/>
-        <n v="23"/>
-        <n v="24"/>
-        <n v="25"/>
-        <n v="26"/>
-        <n v="27"/>
-        <n v="28"/>
-        <n v="29"/>
-        <n v="30"/>
-        <n v="31"/>
-        <n v="32"/>
-        <n v="33"/>
-        <n v="34"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Algorytm" numFmtId="0">
-      <sharedItems count="2">
-        <s v="NegaScout "/>
-        <s v="AlfaBetaFSTT "/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Wierzchołki" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="594" maxValue="36308"/>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Marcin Mikołajczak" refreshedDate="39262.03225358796" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="27">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C28" sheet="AB-ABFSTT 3 - D"/>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="Tura" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="27" count="27">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-        <n v="6"/>
-        <n v="7"/>
-        <n v="8"/>
-        <n v="9"/>
-        <n v="10"/>
-        <n v="11"/>
-        <n v="12"/>
-        <n v="13"/>
-        <n v="14"/>
-        <n v="15"/>
-        <n v="16"/>
-        <n v="17"/>
-        <n v="18"/>
-        <n v="19"/>
-        <n v="20"/>
-        <n v="21"/>
-        <n v="22"/>
-        <n v="23"/>
-        <n v="24"/>
-        <n v="25"/>
-        <n v="26"/>
-        <n v="27"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Algorytm" numFmtId="0">
-      <sharedItems count="2">
-        <s v="AlfaBetaFSTT"/>
-        <s v="AlfaBeta"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Wierzchołki" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="294" maxValue="15399"/>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Marcin Mikołajczak" refreshedDate="39262.038794444445" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="27">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C28" sheet="ABFSTT-NS 3 - D"/>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="Tura" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="27" count="27">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-        <n v="6"/>
-        <n v="7"/>
-        <n v="8"/>
-        <n v="9"/>
-        <n v="10"/>
-        <n v="11"/>
-        <n v="12"/>
-        <n v="13"/>
-        <n v="14"/>
-        <n v="15"/>
-        <n v="16"/>
-        <n v="17"/>
-        <n v="18"/>
-        <n v="19"/>
-        <n v="20"/>
-        <n v="21"/>
-        <n v="22"/>
-        <n v="23"/>
-        <n v="24"/>
-        <n v="25"/>
-        <n v="26"/>
-        <n v="27"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Algorytm" numFmtId="0">
-      <sharedItems count="2">
-        <s v="NegaScout"/>
-        <s v="AlfaBetaFSTT"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Wierzchołki" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="156" maxValue="5977"/>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Marcin Mikołajczak" refreshedDate="39262.043796412036" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="34">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C35" sheet="AB-ABFSTT 4 - D"/>
@@ -2178,183 +2303,340 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Marcin Mikołajczak" refreshedDate="39262.075366898149" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="54">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C55" sheet="AB-ABFSTT 3 - D"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Tura" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="27" count="27">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="18"/>
+        <n v="19"/>
+        <n v="20"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+        <n v="24"/>
+        <n v="25"/>
+        <n v="26"/>
+        <n v="27"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Algorytm" numFmtId="0">
+      <sharedItems count="2">
+        <s v="AlfaBetaFSTTAlgorithm"/>
+        <s v="AlfaBetaAlgorithm"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Wierzchołki" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="156" maxValue="15399"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Marcin Mikołajczak" refreshedDate="39262.078868634257" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="54">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C55" sheet="ABFSTT-NS 3 - D"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Tura" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="27" count="27">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="18"/>
+        <n v="19"/>
+        <n v="20"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+        <n v="24"/>
+        <n v="25"/>
+        <n v="26"/>
+        <n v="27"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Algorytm" numFmtId="0">
+      <sharedItems count="2">
+        <s v="NegaScout"/>
+        <s v="AlfaBetaFSTT"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Wierzchołki" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="156" maxValue="6600"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Marcin Mikołajczak" refreshedDate="39262.09399710648" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="68">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C69" sheet="ABFSTT-NS 4 - D"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Tura" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="34" count="34">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="18"/>
+        <n v="19"/>
+        <n v="20"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+        <n v="24"/>
+        <n v="25"/>
+        <n v="26"/>
+        <n v="27"/>
+        <n v="28"/>
+        <n v="29"/>
+        <n v="30"/>
+        <n v="31"/>
+        <n v="32"/>
+        <n v="33"/>
+        <n v="34"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Algorytm" numFmtId="0">
+      <sharedItems count="2">
+        <s v="NegaScout"/>
+        <s v="AlfaBetaFSTT"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Wierzchołki" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="555" maxValue="45674"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="34">
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="16269"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="27658"/>
+    <n v="17476"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="28350"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="19810"/>
+    <n v="23911"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="22427"/>
+    <n v="21683"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="24172"/>
+    <n v="24851"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
-    <n v="21856"/>
+    <n v="21010"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
-    <n v="17109"/>
+    <n v="16787"/>
   </r>
   <r>
     <x v="7"/>
     <x v="1"/>
-    <n v="12066"/>
+    <n v="14012"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
-    <n v="11459"/>
+    <n v="13704"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
-    <n v="26289"/>
+    <n v="29551"/>
   </r>
   <r>
     <x v="10"/>
     <x v="0"/>
-    <n v="6579"/>
+    <n v="5165"/>
   </r>
   <r>
     <x v="11"/>
     <x v="1"/>
-    <n v="22934"/>
+    <n v="18651"/>
   </r>
   <r>
     <x v="12"/>
     <x v="0"/>
-    <n v="10466"/>
+    <n v="11216"/>
   </r>
   <r>
     <x v="13"/>
     <x v="1"/>
-    <n v="8683"/>
+    <n v="90092"/>
   </r>
   <r>
     <x v="14"/>
     <x v="0"/>
-    <n v="21156"/>
+    <n v="22243"/>
   </r>
   <r>
     <x v="15"/>
     <x v="1"/>
-    <n v="16626"/>
+    <n v="30744"/>
   </r>
   <r>
     <x v="16"/>
     <x v="0"/>
-    <n v="6735"/>
+    <n v="7985"/>
   </r>
   <r>
     <x v="17"/>
     <x v="1"/>
-    <n v="18835"/>
+    <n v="22825"/>
   </r>
   <r>
     <x v="18"/>
     <x v="0"/>
-    <n v="36308"/>
+    <n v="45674"/>
   </r>
   <r>
     <x v="19"/>
     <x v="1"/>
-    <n v="9301"/>
+    <n v="12662"/>
   </r>
   <r>
     <x v="20"/>
     <x v="0"/>
-    <n v="7733"/>
+    <n v="8129"/>
   </r>
   <r>
     <x v="21"/>
     <x v="1"/>
-    <n v="1768"/>
+    <n v="67998"/>
   </r>
   <r>
     <x v="22"/>
     <x v="0"/>
-    <n v="15263"/>
+    <n v="15978"/>
   </r>
   <r>
     <x v="23"/>
     <x v="1"/>
-    <n v="5849"/>
+    <n v="11178"/>
   </r>
   <r>
     <x v="24"/>
     <x v="0"/>
-    <n v="2010"/>
+    <n v="2197"/>
   </r>
   <r>
     <x v="25"/>
     <x v="1"/>
-    <n v="1080"/>
+    <n v="1634"/>
   </r>
   <r>
     <x v="26"/>
     <x v="0"/>
-    <n v="1765"/>
+    <n v="2046"/>
   </r>
   <r>
     <x v="27"/>
     <x v="1"/>
-    <n v="4154"/>
+    <n v="6836"/>
   </r>
   <r>
     <x v="28"/>
     <x v="0"/>
-    <n v="1962"/>
+    <n v="2210"/>
   </r>
   <r>
     <x v="29"/>
     <x v="1"/>
-    <n v="3995"/>
+    <n v="14323"/>
   </r>
   <r>
     <x v="30"/>
     <x v="0"/>
-    <n v="11731"/>
+    <n v="16881"/>
   </r>
   <r>
     <x v="31"/>
     <x v="1"/>
-    <n v="2150"/>
+    <n v="9298"/>
   </r>
   <r>
     <x v="32"/>
     <x v="0"/>
-    <n v="594"/>
+    <n v="555"/>
   </r>
   <r>
     <x v="33"/>
     <x v="1"/>
-    <n v="1244"/>
+    <n v="6577"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="27">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="54">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2489,12 +2771,147 @@
     <x v="26"/>
     <x v="0"/>
     <n v="294"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4257"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5960"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="4148"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="4433"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="4959"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="4264"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="8769"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="2923"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="4368"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="4144"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="8866"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="2922"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="6182"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="3505"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="5612"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="2742"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="4806"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="2651"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="1"/>
+    <n v="5128"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="3827"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="1"/>
+    <n v="7670"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="5136"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="3170"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="1339"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="1"/>
+    <n v="278"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="156"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="1"/>
+    <n v="264"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="27">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="54">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2628,188 +3045,493 @@
   <r>
     <x v="26"/>
     <x v="0"/>
+    <n v="294"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4514"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4753"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="4279"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="4547"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="5008"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="4442"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="5268"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="2932"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="3871"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="3832"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="6600"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="2921"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="4761"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="3430"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="3223"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="2743"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="4069"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="2571"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="1"/>
+    <n v="3456"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="3082"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="1"/>
+    <n v="3433"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="3526"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="2869"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="1192"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="1"/>
+    <n v="321"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="156"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="1"/>
     <n v="294"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="34">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="68">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16269"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="27658"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="19810"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="22427"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="24172"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="21856"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="17109"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="12066"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="11459"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="26289"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="6579"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="22934"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="10466"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="8683"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="21156"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="16626"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="6735"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="1"/>
+    <n v="18835"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="36308"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="1"/>
+    <n v="9301"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="7733"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="1768"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="15263"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="1"/>
+    <n v="5849"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="1"/>
+    <n v="1080"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="1765"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="1"/>
+    <n v="4154"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="1962"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="1"/>
+    <n v="3995"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="11731"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="2150"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="0"/>
+    <n v="594"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="1"/>
+    <n v="1244"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
     <n v="17476"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
-    <n v="28350"/>
+    <x v="0"/>
+    <n v="26104"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="23911"/>
   </r>
   <r>
     <x v="3"/>
-    <x v="1"/>
-    <n v="21683"/>
+    <x v="0"/>
+    <n v="22921"/>
   </r>
   <r>
     <x v="4"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="24851"/>
   </r>
   <r>
     <x v="5"/>
-    <x v="1"/>
-    <n v="21010"/>
+    <x v="0"/>
+    <n v="21827"/>
   </r>
   <r>
     <x v="6"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="16787"/>
   </r>
   <r>
     <x v="7"/>
-    <x v="1"/>
-    <n v="14012"/>
+    <x v="0"/>
+    <n v="11465"/>
   </r>
   <r>
     <x v="8"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="13704"/>
   </r>
   <r>
     <x v="9"/>
-    <x v="1"/>
-    <n v="29551"/>
+    <x v="0"/>
+    <n v="26800"/>
   </r>
   <r>
     <x v="10"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="5165"/>
   </r>
   <r>
     <x v="11"/>
-    <x v="1"/>
-    <n v="18651"/>
+    <x v="0"/>
+    <n v="24688"/>
   </r>
   <r>
     <x v="12"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="11216"/>
   </r>
   <r>
     <x v="13"/>
-    <x v="1"/>
-    <n v="90092"/>
+    <x v="0"/>
+    <n v="6172"/>
   </r>
   <r>
     <x v="14"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="22243"/>
   </r>
   <r>
     <x v="15"/>
-    <x v="1"/>
-    <n v="30744"/>
+    <x v="0"/>
+    <n v="17584"/>
   </r>
   <r>
     <x v="16"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="7985"/>
   </r>
   <r>
     <x v="17"/>
-    <x v="1"/>
-    <n v="22825"/>
+    <x v="0"/>
+    <n v="17039"/>
   </r>
   <r>
     <x v="18"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="45674"/>
   </r>
   <r>
     <x v="19"/>
-    <x v="1"/>
-    <n v="12662"/>
+    <x v="0"/>
+    <n v="8372"/>
   </r>
   <r>
     <x v="20"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="8129"/>
   </r>
   <r>
     <x v="21"/>
-    <x v="1"/>
-    <n v="67998"/>
+    <x v="0"/>
+    <n v="1827"/>
   </r>
   <r>
     <x v="22"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="15978"/>
   </r>
   <r>
     <x v="23"/>
-    <x v="1"/>
-    <n v="11178"/>
+    <x v="0"/>
+    <n v="5304"/>
   </r>
   <r>
     <x v="24"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="2197"/>
   </r>
   <r>
     <x v="25"/>
-    <x v="1"/>
-    <n v="1634"/>
+    <x v="0"/>
+    <n v="1050"/>
   </r>
   <r>
     <x v="26"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="2046"/>
   </r>
   <r>
     <x v="27"/>
-    <x v="1"/>
-    <n v="6836"/>
+    <x v="0"/>
+    <n v="4119"/>
   </r>
   <r>
     <x v="28"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="2210"/>
   </r>
   <r>
     <x v="29"/>
-    <x v="1"/>
-    <n v="14323"/>
+    <x v="0"/>
+    <n v="3117"/>
   </r>
   <r>
     <x v="30"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="16881"/>
   </r>
   <r>
     <x v="31"/>
-    <x v="1"/>
-    <n v="9298"/>
+    <x v="0"/>
+    <n v="2152"/>
   </r>
   <r>
     <x v="32"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="555"/>
   </r>
   <r>
     <x v="33"/>
-    <x v="1"/>
-    <n v="6577"/>
+    <x v="0"/>
+    <n v="1149"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:D32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -2844,10 +3566,10 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisCol" showAll="0" sortType="ascending">
       <items count="3">
-        <item x="1"/>
-        <item x="0"/>
+        <item n="AlfaBeta" x="1"/>
+        <item n="AlfaBetaFSTT" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2960,7 +3682,19 @@
     <dataField name="Suma z Wierzchołki" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
-    <chartFormat chart="1" format="2" series="1">
+    <chartFormat chart="1" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2972,25 +3706,13 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna5" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:D39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3199,7 +3921,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:D32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3380,7 +4102,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:D39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3422,7 +4144,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisCol" showAll="0" sortType="ascending">
       <items count="3">
         <item x="1"/>
         <item x="0"/>
@@ -3559,7 +4281,19 @@
     <dataField name="Suma z Wierzchołki" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
-    <chartFormat chart="1" format="2" series="1">
+    <chartFormat chart="1" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3567,18 +4301,6 @@
           </reference>
           <reference field="1" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -3873,10 +4595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3884,17 +4606,18 @@
     <col min="1" max="1" width="4.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3902,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>4514</v>
@@ -3913,7 +4636,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>7899</v>
@@ -3924,7 +4647,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>4279</v>
@@ -3935,7 +4658,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>4190</v>
@@ -3946,7 +4669,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>5008</v>
@@ -3957,7 +4680,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>4706</v>
@@ -3968,7 +4691,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>5268</v>
@@ -3979,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>8779</v>
@@ -3990,7 +4713,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>3871</v>
@@ -4001,7 +4724,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>6183</v>
@@ -4012,7 +4735,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>6600</v>
@@ -4023,7 +4746,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>15399</v>
@@ -4034,7 +4757,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>4761</v>
@@ -4045,7 +4768,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>9086</v>
@@ -4056,7 +4779,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>3223</v>
@@ -4067,7 +4790,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>4073</v>
@@ -4078,7 +4801,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>4069</v>
@@ -4089,7 +4812,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>3230</v>
@@ -4100,7 +4823,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>3456</v>
@@ -4111,7 +4834,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>4662</v>
@@ -4122,7 +4845,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>3433</v>
@@ -4133,7 +4856,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>6900</v>
@@ -4144,7 +4867,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>2869</v>
@@ -4155,7 +4878,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>1385</v>
@@ -4166,7 +4889,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>321</v>
@@ -4177,7 +4900,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>449</v>
@@ -4188,10 +4911,307 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>5960</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>4959</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>8769</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>8866</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>6182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>5612</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>5128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>3827</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>7670</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>5136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>26</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -4203,8 +5223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4217,36 +5237,38 @@
   <sheetData>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>4257</v>
+      </c>
       <c r="C5" s="1">
         <v>4514</v>
       </c>
       <c r="D5" s="1">
-        <v>4514</v>
+        <v>8771</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4256,21 +5278,25 @@
       <c r="B6" s="1">
         <v>7899</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>5960</v>
+      </c>
       <c r="D6" s="1">
-        <v>7899</v>
+        <v>13859</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>4148</v>
+      </c>
       <c r="C7" s="1">
         <v>4279</v>
       </c>
       <c r="D7" s="1">
-        <v>4279</v>
+        <v>8427</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4280,21 +5306,25 @@
       <c r="B8" s="1">
         <v>4190</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>4433</v>
+      </c>
       <c r="D8" s="1">
-        <v>4190</v>
+        <v>8623</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>4959</v>
+      </c>
       <c r="C9" s="1">
         <v>5008</v>
       </c>
       <c r="D9" s="1">
-        <v>5008</v>
+        <v>9967</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4304,21 +5334,25 @@
       <c r="B10" s="1">
         <v>4706</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>4264</v>
+      </c>
       <c r="D10" s="1">
-        <v>4706</v>
+        <v>8970</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <v>8769</v>
+      </c>
       <c r="C11" s="1">
         <v>5268</v>
       </c>
       <c r="D11" s="1">
-        <v>5268</v>
+        <v>14037</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4328,21 +5362,25 @@
       <c r="B12" s="1">
         <v>8779</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>2923</v>
+      </c>
       <c r="D12" s="1">
-        <v>8779</v>
+        <v>11702</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1">
+        <v>4368</v>
+      </c>
       <c r="C13" s="1">
         <v>3871</v>
       </c>
       <c r="D13" s="1">
-        <v>3871</v>
+        <v>8239</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4352,21 +5390,25 @@
       <c r="B14" s="1">
         <v>6183</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>4144</v>
+      </c>
       <c r="D14" s="1">
-        <v>6183</v>
+        <v>10327</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1">
+        <v>8866</v>
+      </c>
       <c r="C15" s="1">
         <v>6600</v>
       </c>
       <c r="D15" s="1">
-        <v>6600</v>
+        <v>15466</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4376,21 +5418,25 @@
       <c r="B16" s="1">
         <v>15399</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>2922</v>
+      </c>
       <c r="D16" s="1">
-        <v>15399</v>
+        <v>18321</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1">
+        <v>6182</v>
+      </c>
       <c r="C17" s="1">
         <v>4761</v>
       </c>
       <c r="D17" s="1">
-        <v>4761</v>
+        <v>10943</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4400,21 +5446,25 @@
       <c r="B18" s="1">
         <v>9086</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>3505</v>
+      </c>
       <c r="D18" s="1">
-        <v>9086</v>
+        <v>12591</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1">
+        <v>5612</v>
+      </c>
       <c r="C19" s="1">
         <v>3223</v>
       </c>
       <c r="D19" s="1">
-        <v>3223</v>
+        <v>8835</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4424,21 +5474,25 @@
       <c r="B20" s="1">
         <v>4073</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>2742</v>
+      </c>
       <c r="D20" s="1">
-        <v>4073</v>
+        <v>6815</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1">
+        <v>4806</v>
+      </c>
       <c r="C21" s="1">
         <v>4069</v>
       </c>
       <c r="D21" s="1">
-        <v>4069</v>
+        <v>8875</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4448,21 +5502,25 @@
       <c r="B22" s="1">
         <v>3230</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1">
+        <v>2651</v>
+      </c>
       <c r="D22" s="1">
-        <v>3230</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1">
+        <v>5128</v>
+      </c>
       <c r="C23" s="1">
         <v>3456</v>
       </c>
       <c r="D23" s="1">
-        <v>3456</v>
+        <v>8584</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4472,21 +5530,25 @@
       <c r="B24" s="1">
         <v>4662</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1">
+        <v>3827</v>
+      </c>
       <c r="D24" s="1">
-        <v>4662</v>
+        <v>8489</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>21</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1">
+        <v>7670</v>
+      </c>
       <c r="C25" s="1">
         <v>3433</v>
       </c>
       <c r="D25" s="1">
-        <v>3433</v>
+        <v>11103</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4496,21 +5558,25 @@
       <c r="B26" s="1">
         <v>6900</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1">
+        <v>5136</v>
+      </c>
       <c r="D26" s="1">
-        <v>6900</v>
+        <v>12036</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3">
         <v>23</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1">
+        <v>3170</v>
+      </c>
       <c r="C27" s="1">
         <v>2869</v>
       </c>
       <c r="D27" s="1">
-        <v>2869</v>
+        <v>6039</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4520,21 +5586,25 @@
       <c r="B28" s="1">
         <v>1385</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1">
+        <v>1339</v>
+      </c>
       <c r="D28" s="1">
-        <v>1385</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>25</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1">
+        <v>278</v>
+      </c>
       <c r="C29" s="1">
         <v>321</v>
       </c>
       <c r="D29" s="1">
-        <v>321</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4544,35 +5614,39 @@
       <c r="B30" s="1">
         <v>449</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1">
+        <v>156</v>
+      </c>
       <c r="D30" s="1">
-        <v>449</v>
+        <v>605</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3">
         <v>27</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1">
+        <v>264</v>
+      </c>
       <c r="C31" s="1">
         <v>294</v>
       </c>
       <c r="D31" s="1">
-        <v>294</v>
+        <v>558</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B32" s="1">
-        <v>76941</v>
+        <v>145418</v>
       </c>
       <c r="C32" s="1">
-        <v>51966</v>
+        <v>95968</v>
       </c>
       <c r="D32" s="1">
-        <v>128907</v>
+        <v>241386</v>
       </c>
     </row>
   </sheetData>
@@ -4582,9 +5656,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -4596,13 +5672,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4610,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>17476</v>
@@ -4621,7 +5697,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>28350</v>
@@ -4632,7 +5708,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>23911</v>
@@ -4643,7 +5719,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>21683</v>
@@ -4654,7 +5730,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>24851</v>
@@ -4665,7 +5741,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>21010</v>
@@ -4676,7 +5752,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>16787</v>
@@ -4687,7 +5763,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>14012</v>
@@ -4698,7 +5774,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>13704</v>
@@ -4709,7 +5785,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>29551</v>
@@ -4720,7 +5796,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>5165</v>
@@ -4731,7 +5807,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>18651</v>
@@ -4742,7 +5818,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>11216</v>
@@ -4753,7 +5829,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>90092</v>
@@ -4764,7 +5840,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>22243</v>
@@ -4775,7 +5851,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>30744</v>
@@ -4786,7 +5862,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>7985</v>
@@ -4797,7 +5873,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>22825</v>
@@ -4808,7 +5884,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>45674</v>
@@ -4819,7 +5895,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>12662</v>
@@ -4830,7 +5906,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>8129</v>
@@ -4841,7 +5917,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>67998</v>
@@ -4852,7 +5928,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>15978</v>
@@ -4863,7 +5939,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>11178</v>
@@ -4874,7 +5950,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>2197</v>
@@ -4885,7 +5961,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>1634</v>
@@ -4896,7 +5972,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>2046</v>
@@ -4907,7 +5983,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>6836</v>
@@ -4918,7 +5994,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <v>2210</v>
@@ -4929,7 +6005,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>14323</v>
@@ -4940,7 +6016,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>16881</v>
@@ -4951,7 +6027,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33">
         <v>9298</v>
@@ -4962,7 +6038,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <v>555</v>
@@ -4973,10 +6049,180 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35">
         <v>6577</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -5002,24 +6248,24 @@
   <sheetData>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5432,7 +6678,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B39" s="1">
         <v>407424</v>
@@ -5451,9 +6697,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -5464,13 +6712,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5478,7 +6726,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>4515</v>
@@ -5489,7 +6737,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>5960</v>
@@ -5500,7 +6748,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>4224</v>
@@ -5511,7 +6759,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>4433</v>
@@ -5522,7 +6770,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>4160</v>
@@ -5533,7 +6781,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>4264</v>
@@ -5544,7 +6792,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>4660</v>
@@ -5555,7 +6803,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>2923</v>
@@ -5566,7 +6814,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>3734</v>
@@ -5577,7 +6825,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>4144</v>
@@ -5588,7 +6836,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>5977</v>
@@ -5599,7 +6847,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>2922</v>
@@ -5610,7 +6858,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>4182</v>
@@ -5621,7 +6869,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>3505</v>
@@ -5632,7 +6880,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>3039</v>
@@ -5643,7 +6891,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>2742</v>
@@ -5654,7 +6902,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>3018</v>
@@ -5665,7 +6913,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>2651</v>
@@ -5676,7 +6924,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>2694</v>
@@ -5687,7 +6935,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>3827</v>
@@ -5698,7 +6946,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>3134</v>
@@ -5709,7 +6957,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>5136</v>
@@ -5720,7 +6968,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>2621</v>
@@ -5731,7 +6979,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>1339</v>
@@ -5742,7 +6990,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>333</v>
@@ -5753,7 +7001,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>156</v>
@@ -5764,9 +7012,306 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>4753</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>5268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
         <v>11</v>
       </c>
-      <c r="C28">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>4761</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>26</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
         <v>294</v>
       </c>
     </row>
@@ -5779,8 +7324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5795,36 +7340,38 @@
   <sheetData>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>4514</v>
+      </c>
       <c r="C5" s="1">
         <v>4515</v>
       </c>
       <c r="D5" s="1">
-        <v>4515</v>
+        <v>9029</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5834,21 +7381,25 @@
       <c r="B6" s="1">
         <v>5960</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>4753</v>
+      </c>
       <c r="D6" s="1">
-        <v>5960</v>
+        <v>10713</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>4279</v>
+      </c>
       <c r="C7" s="1">
         <v>4224</v>
       </c>
       <c r="D7" s="1">
-        <v>4224</v>
+        <v>8503</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5858,21 +7409,25 @@
       <c r="B8" s="1">
         <v>4433</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>4547</v>
+      </c>
       <c r="D8" s="1">
-        <v>4433</v>
+        <v>8980</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>5008</v>
+      </c>
       <c r="C9" s="1">
         <v>4160</v>
       </c>
       <c r="D9" s="1">
-        <v>4160</v>
+        <v>9168</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5882,21 +7437,25 @@
       <c r="B10" s="1">
         <v>4264</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>4442</v>
+      </c>
       <c r="D10" s="1">
-        <v>4264</v>
+        <v>8706</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <v>5268</v>
+      </c>
       <c r="C11" s="1">
         <v>4660</v>
       </c>
       <c r="D11" s="1">
-        <v>4660</v>
+        <v>9928</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5906,21 +7465,25 @@
       <c r="B12" s="1">
         <v>2923</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>2932</v>
+      </c>
       <c r="D12" s="1">
-        <v>2923</v>
+        <v>5855</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1">
+        <v>3871</v>
+      </c>
       <c r="C13" s="1">
         <v>3734</v>
       </c>
       <c r="D13" s="1">
-        <v>3734</v>
+        <v>7605</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5930,21 +7493,25 @@
       <c r="B14" s="1">
         <v>4144</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>3832</v>
+      </c>
       <c r="D14" s="1">
-        <v>4144</v>
+        <v>7976</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1">
+        <v>6600</v>
+      </c>
       <c r="C15" s="1">
         <v>5977</v>
       </c>
       <c r="D15" s="1">
-        <v>5977</v>
+        <v>12577</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5954,21 +7521,25 @@
       <c r="B16" s="1">
         <v>2922</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>2921</v>
+      </c>
       <c r="D16" s="1">
-        <v>2922</v>
+        <v>5843</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1">
+        <v>4761</v>
+      </c>
       <c r="C17" s="1">
         <v>4182</v>
       </c>
       <c r="D17" s="1">
-        <v>4182</v>
+        <v>8943</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5978,21 +7549,25 @@
       <c r="B18" s="1">
         <v>3505</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>3430</v>
+      </c>
       <c r="D18" s="1">
-        <v>3505</v>
+        <v>6935</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1">
+        <v>3223</v>
+      </c>
       <c r="C19" s="1">
         <v>3039</v>
       </c>
       <c r="D19" s="1">
-        <v>3039</v>
+        <v>6262</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6002,21 +7577,25 @@
       <c r="B20" s="1">
         <v>2742</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>2743</v>
+      </c>
       <c r="D20" s="1">
-        <v>2742</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1">
+        <v>4069</v>
+      </c>
       <c r="C21" s="1">
         <v>3018</v>
       </c>
       <c r="D21" s="1">
-        <v>3018</v>
+        <v>7087</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6026,21 +7605,25 @@
       <c r="B22" s="1">
         <v>2651</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1">
+        <v>2571</v>
+      </c>
       <c r="D22" s="1">
-        <v>2651</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1">
+        <v>3456</v>
+      </c>
       <c r="C23" s="1">
         <v>2694</v>
       </c>
       <c r="D23" s="1">
-        <v>2694</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6050,21 +7633,25 @@
       <c r="B24" s="1">
         <v>3827</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1">
+        <v>3082</v>
+      </c>
       <c r="D24" s="1">
-        <v>3827</v>
+        <v>6909</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>21</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1">
+        <v>3433</v>
+      </c>
       <c r="C25" s="1">
         <v>3134</v>
       </c>
       <c r="D25" s="1">
-        <v>3134</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6074,21 +7661,25 @@
       <c r="B26" s="1">
         <v>5136</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1">
+        <v>3526</v>
+      </c>
       <c r="D26" s="1">
-        <v>5136</v>
+        <v>8662</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3">
         <v>23</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1">
+        <v>2869</v>
+      </c>
       <c r="C27" s="1">
         <v>2621</v>
       </c>
       <c r="D27" s="1">
-        <v>2621</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6098,21 +7689,25 @@
       <c r="B28" s="1">
         <v>1339</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1">
+        <v>1192</v>
+      </c>
       <c r="D28" s="1">
-        <v>1339</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>25</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1">
+        <v>321</v>
+      </c>
       <c r="C29" s="1">
         <v>333</v>
       </c>
       <c r="D29" s="1">
-        <v>333</v>
+        <v>654</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6122,35 +7717,39 @@
       <c r="B30" s="1">
         <v>156</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1">
+        <v>156</v>
+      </c>
       <c r="D30" s="1">
-        <v>156</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3">
         <v>27</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1">
+        <v>294</v>
+      </c>
       <c r="C31" s="1">
         <v>294</v>
       </c>
       <c r="D31" s="1">
-        <v>294</v>
+        <v>588</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B32" s="1">
-        <v>44002</v>
+        <v>95968</v>
       </c>
       <c r="C32" s="1">
-        <v>46585</v>
+        <v>86712</v>
       </c>
       <c r="D32" s="1">
-        <v>90587</v>
+        <v>182680</v>
       </c>
     </row>
   </sheetData>
@@ -6160,10 +7759,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6175,13 +7774,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6189,7 +7788,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>16269</v>
@@ -6200,7 +7799,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>27658</v>
@@ -6211,7 +7810,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>19810</v>
@@ -6222,7 +7821,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>22427</v>
@@ -6233,7 +7832,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>24172</v>
@@ -6244,7 +7843,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>21856</v>
@@ -6255,7 +7854,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>17109</v>
@@ -6266,7 +7865,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>12066</v>
@@ -6277,7 +7876,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>11459</v>
@@ -6288,7 +7887,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>26289</v>
@@ -6299,7 +7898,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>6579</v>
@@ -6310,7 +7909,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>22934</v>
@@ -6321,7 +7920,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>10466</v>
@@ -6332,7 +7931,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>8683</v>
@@ -6343,7 +7942,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>21156</v>
@@ -6354,7 +7953,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>16626</v>
@@ -6365,7 +7964,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>6735</v>
@@ -6376,7 +7975,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>18835</v>
@@ -6387,7 +7986,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>36308</v>
@@ -6398,7 +7997,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>9301</v>
@@ -6409,7 +8008,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>7733</v>
@@ -6420,7 +8019,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>1768</v>
@@ -6431,7 +8030,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>15263</v>
@@ -6442,7 +8041,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>5849</v>
@@ -6453,7 +8052,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>2010</v>
@@ -6464,7 +8063,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>1080</v>
@@ -6475,7 +8074,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>1765</v>
@@ -6486,7 +8085,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>4154</v>
@@ -6497,7 +8096,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>1962</v>
@@ -6508,7 +8107,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C31">
         <v>3995</v>
@@ -6519,7 +8118,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>11731</v>
@@ -6530,7 +8129,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>2150</v>
@@ -6541,7 +8140,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>594</v>
@@ -6552,10 +8151,384 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C35">
         <v>1244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>17476</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>26104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>23911</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>22921</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>24851</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>21827</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>16787</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>11465</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>13704</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>26800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>5165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>24688</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>11216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>6172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>22243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>17584</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>7985</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>17039</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>19</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>8372</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>8129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>22</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>15978</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>5304</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>26</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>27</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>28</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>29</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>30</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>16881</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>32</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>33</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>34</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>1149</v>
       </c>
     </row>
   </sheetData>
@@ -6567,15 +8540,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.25" customWidth="1"/>
     <col min="6" max="6" width="11.125" customWidth="1"/>
@@ -6647,36 +8620,38 @@
   <sheetData>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>17476</v>
+      </c>
       <c r="C5" s="1">
         <v>16269</v>
       </c>
       <c r="D5" s="1">
-        <v>16269</v>
+        <v>33745</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6686,21 +8661,25 @@
       <c r="B6" s="1">
         <v>27658</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>26104</v>
+      </c>
       <c r="D6" s="1">
-        <v>27658</v>
+        <v>53762</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>23911</v>
+      </c>
       <c r="C7" s="1">
         <v>19810</v>
       </c>
       <c r="D7" s="1">
-        <v>19810</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6710,21 +8689,25 @@
       <c r="B8" s="1">
         <v>22427</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>22921</v>
+      </c>
       <c r="D8" s="1">
-        <v>22427</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>24851</v>
+      </c>
       <c r="C9" s="1">
         <v>24172</v>
       </c>
       <c r="D9" s="1">
-        <v>24172</v>
+        <v>49023</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6734,21 +8717,25 @@
       <c r="B10" s="1">
         <v>21856</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>21827</v>
+      </c>
       <c r="D10" s="1">
-        <v>21856</v>
+        <v>43683</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <v>16787</v>
+      </c>
       <c r="C11" s="1">
         <v>17109</v>
       </c>
       <c r="D11" s="1">
-        <v>17109</v>
+        <v>33896</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6758,21 +8745,25 @@
       <c r="B12" s="1">
         <v>12066</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>11465</v>
+      </c>
       <c r="D12" s="1">
-        <v>12066</v>
+        <v>23531</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1">
+        <v>13704</v>
+      </c>
       <c r="C13" s="1">
         <v>11459</v>
       </c>
       <c r="D13" s="1">
-        <v>11459</v>
+        <v>25163</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6782,21 +8773,25 @@
       <c r="B14" s="1">
         <v>26289</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>26800</v>
+      </c>
       <c r="D14" s="1">
-        <v>26289</v>
+        <v>53089</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1">
+        <v>5165</v>
+      </c>
       <c r="C15" s="1">
         <v>6579</v>
       </c>
       <c r="D15" s="1">
-        <v>6579</v>
+        <v>11744</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6806,21 +8801,25 @@
       <c r="B16" s="1">
         <v>22934</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>24688</v>
+      </c>
       <c r="D16" s="1">
-        <v>22934</v>
+        <v>47622</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1">
+        <v>11216</v>
+      </c>
       <c r="C17" s="1">
         <v>10466</v>
       </c>
       <c r="D17" s="1">
-        <v>10466</v>
+        <v>21682</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6830,21 +8829,25 @@
       <c r="B18" s="1">
         <v>8683</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>6172</v>
+      </c>
       <c r="D18" s="1">
-        <v>8683</v>
+        <v>14855</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1">
+        <v>22243</v>
+      </c>
       <c r="C19" s="1">
         <v>21156</v>
       </c>
       <c r="D19" s="1">
-        <v>21156</v>
+        <v>43399</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6854,21 +8857,25 @@
       <c r="B20" s="1">
         <v>16626</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>17584</v>
+      </c>
       <c r="D20" s="1">
-        <v>16626</v>
+        <v>34210</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1">
+        <v>7985</v>
+      </c>
       <c r="C21" s="1">
         <v>6735</v>
       </c>
       <c r="D21" s="1">
-        <v>6735</v>
+        <v>14720</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6878,21 +8885,25 @@
       <c r="B22" s="1">
         <v>18835</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1">
+        <v>17039</v>
+      </c>
       <c r="D22" s="1">
-        <v>18835</v>
+        <v>35874</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1">
+        <v>45674</v>
+      </c>
       <c r="C23" s="1">
         <v>36308</v>
       </c>
       <c r="D23" s="1">
-        <v>36308</v>
+        <v>81982</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6902,21 +8913,25 @@
       <c r="B24" s="1">
         <v>9301</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1">
+        <v>8372</v>
+      </c>
       <c r="D24" s="1">
-        <v>9301</v>
+        <v>17673</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>21</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1">
+        <v>8129</v>
+      </c>
       <c r="C25" s="1">
         <v>7733</v>
       </c>
       <c r="D25" s="1">
-        <v>7733</v>
+        <v>15862</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6926,21 +8941,25 @@
       <c r="B26" s="1">
         <v>1768</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1">
+        <v>1827</v>
+      </c>
       <c r="D26" s="1">
-        <v>1768</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3">
         <v>23</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1">
+        <v>15978</v>
+      </c>
       <c r="C27" s="1">
         <v>15263</v>
       </c>
       <c r="D27" s="1">
-        <v>15263</v>
+        <v>31241</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6950,21 +8969,25 @@
       <c r="B28" s="1">
         <v>5849</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1">
+        <v>5304</v>
+      </c>
       <c r="D28" s="1">
-        <v>5849</v>
+        <v>11153</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>25</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1">
+        <v>2197</v>
+      </c>
       <c r="C29" s="1">
         <v>2010</v>
       </c>
       <c r="D29" s="1">
-        <v>2010</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6974,21 +8997,25 @@
       <c r="B30" s="1">
         <v>1080</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1">
+        <v>1050</v>
+      </c>
       <c r="D30" s="1">
-        <v>1080</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3">
         <v>27</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1">
+        <v>2046</v>
+      </c>
       <c r="C31" s="1">
         <v>1765</v>
       </c>
       <c r="D31" s="1">
-        <v>1765</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6998,21 +9025,25 @@
       <c r="B32" s="1">
         <v>4154</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1">
+        <v>4119</v>
+      </c>
       <c r="D32" s="1">
-        <v>4154</v>
+        <v>8273</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3">
         <v>29</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1">
+        <v>2210</v>
+      </c>
       <c r="C33" s="1">
         <v>1962</v>
       </c>
       <c r="D33" s="1">
-        <v>1962</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7022,21 +9053,25 @@
       <c r="B34" s="1">
         <v>3995</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1">
+        <v>3117</v>
+      </c>
       <c r="D34" s="1">
-        <v>3995</v>
+        <v>7112</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3">
         <v>31</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1">
+        <v>16881</v>
+      </c>
       <c r="C35" s="1">
         <v>11731</v>
       </c>
       <c r="D35" s="1">
-        <v>11731</v>
+        <v>28612</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7046,21 +9081,25 @@
       <c r="B36" s="1">
         <v>2150</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1">
+        <v>2152</v>
+      </c>
       <c r="D36" s="1">
-        <v>2150</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3">
         <v>33</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="1">
+        <v>555</v>
+      </c>
       <c r="C37" s="1">
         <v>594</v>
       </c>
       <c r="D37" s="1">
-        <v>594</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7070,23 +9109,25 @@
       <c r="B38" s="1">
         <v>1244</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1">
+        <v>1149</v>
+      </c>
       <c r="D38" s="1">
-        <v>1244</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B39" s="1">
-        <v>206915</v>
+        <v>443923</v>
       </c>
       <c r="C39" s="1">
-        <v>211121</v>
+        <v>412811</v>
       </c>
       <c r="D39" s="1">
-        <v>418036</v>
+        <v>856734</v>
       </c>
     </row>
   </sheetData>

--- a/si/quad/Quad.xlsx
+++ b/si/quad/Quad.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="14790" windowHeight="8280" tabRatio="628" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="14790" windowHeight="8280" tabRatio="628" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="AB-ABFSTT 3 - D" sheetId="2" r:id="rId1"/>
+    <sheet name="AB-ABFSTT 3 - D" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="AB-ABFSTT 3 - T" sheetId="7" state="hidden" r:id="rId2"/>
     <sheet name="AB-ABFSTT 3 - W" sheetId="8" r:id="rId3"/>
-    <sheet name="AB-ABFSTT 4 - D" sheetId="9" r:id="rId4"/>
-    <sheet name="AB-ABFSTT 4 - T" sheetId="13" r:id="rId5"/>
+    <sheet name="AB-ABFSTT 4 - D" sheetId="9" state="hidden" r:id="rId4"/>
+    <sheet name="AB-ABFSTT 4 - T" sheetId="13" state="hidden" r:id="rId5"/>
     <sheet name="AB-ABFSTT 4 - W" sheetId="14" r:id="rId6"/>
     <sheet name="ABFSTT-NS 3 - D" sheetId="10" state="hidden" r:id="rId7"/>
     <sheet name="ABFSTT-NS 3 - T" sheetId="11" state="hidden" r:id="rId8"/>
@@ -22,16 +22,16 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId13"/>
-    <pivotCache cacheId="6" r:id="rId14"/>
-    <pivotCache cacheId="9" r:id="rId15"/>
-    <pivotCache cacheId="12" r:id="rId16"/>
+    <pivotCache cacheId="6" r:id="rId13"/>
+    <pivotCache cacheId="9" r:id="rId14"/>
+    <pivotCache cacheId="12" r:id="rId15"/>
+    <pivotCache cacheId="23" r:id="rId16"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="10">
   <si>
     <t>Algorytm</t>
   </si>
@@ -768,53 +768,104 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>16029</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>28350</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>38474</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>21683</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>37584</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>21010</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>26432</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>14012</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>16889</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>29551</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>34877</c:v>
+                </c:pt>
                 <c:pt idx="11">
                   <c:v>18651</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>27310</c:v>
+                </c:pt>
                 <c:pt idx="13">
                   <c:v>90092</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>27901</c:v>
+                </c:pt>
                 <c:pt idx="15">
                   <c:v>30744</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>12971</c:v>
+                </c:pt>
                 <c:pt idx="17">
                   <c:v>22825</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>10268</c:v>
+                </c:pt>
                 <c:pt idx="19">
                   <c:v>12662</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>50244</c:v>
+                </c:pt>
                 <c:pt idx="21">
                   <c:v>67998</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>20019</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>11178</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>7610</c:v>
+                </c:pt>
                 <c:pt idx="25">
                   <c:v>1634</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>3191</c:v>
+                </c:pt>
                 <c:pt idx="27">
                   <c:v>6836</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>7120</c:v>
+                </c:pt>
                 <c:pt idx="29">
                   <c:v>14323</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>23838</c:v>
+                </c:pt>
                 <c:pt idx="31">
                   <c:v>9298</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11120</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>6577</c:v>
@@ -959,53 +1010,104 @@
                 <c:pt idx="0">
                   <c:v>17476</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>27658</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>23911</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>22427</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>24851</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>21856</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>16787</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>12066</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>13704</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>26289</c:v>
+                </c:pt>
                 <c:pt idx="10">
                   <c:v>5165</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>22934</c:v>
+                </c:pt>
                 <c:pt idx="12">
                   <c:v>11216</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>8683</c:v>
+                </c:pt>
                 <c:pt idx="14">
                   <c:v>22243</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>16626</c:v>
+                </c:pt>
                 <c:pt idx="16">
                   <c:v>7985</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>18835</c:v>
+                </c:pt>
                 <c:pt idx="18">
                   <c:v>45674</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>9301</c:v>
+                </c:pt>
                 <c:pt idx="20">
                   <c:v>8129</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>1768</c:v>
+                </c:pt>
                 <c:pt idx="22">
                   <c:v>15978</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>5849</c:v>
+                </c:pt>
                 <c:pt idx="24">
                   <c:v>2197</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>1080</c:v>
+                </c:pt>
                 <c:pt idx="26">
                   <c:v>2046</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>4154</c:v>
+                </c:pt>
                 <c:pt idx="28">
                   <c:v>2210</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>3995</c:v>
+                </c:pt>
                 <c:pt idx="30">
                   <c:v>16881</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>1593</c:v>
+                </c:pt>
                 <c:pt idx="32">
                   <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2098,7 +2200,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2131,7 +2233,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="83" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2247,63 +2349,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Marcin Mikołajczak" refreshedDate="39262.043796412036" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="34">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C35" sheet="AB-ABFSTT 4 - D"/>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="Tura" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="34" count="34">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-        <n v="6"/>
-        <n v="7"/>
-        <n v="8"/>
-        <n v="9"/>
-        <n v="10"/>
-        <n v="11"/>
-        <n v="12"/>
-        <n v="13"/>
-        <n v="14"/>
-        <n v="15"/>
-        <n v="16"/>
-        <n v="17"/>
-        <n v="18"/>
-        <n v="19"/>
-        <n v="20"/>
-        <n v="21"/>
-        <n v="22"/>
-        <n v="23"/>
-        <n v="24"/>
-        <n v="25"/>
-        <n v="26"/>
-        <n v="27"/>
-        <n v="28"/>
-        <n v="29"/>
-        <n v="30"/>
-        <n v="31"/>
-        <n v="32"/>
-        <n v="33"/>
-        <n v="34"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Algorytm" numFmtId="0">
-      <sharedItems count="2">
-        <s v="AlfaBetaFSTT"/>
-        <s v="AlfaBeta"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Wierzchołki" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="555" maxValue="90092"/>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Marcin Mikołajczak" refreshedDate="39262.075366898149" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="54">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C55" sheet="AB-ABFSTT 3 - D"/>
@@ -2353,7 +2398,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Marcin Mikołajczak" refreshedDate="39262.078868634257" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="54">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C55" sheet="ABFSTT-NS 3 - D"/>
@@ -2403,7 +2448,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Marcin Mikołajczak" refreshedDate="39262.09399710648" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="68">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C69" sheet="ABFSTT-NS 4 - D"/>
@@ -2460,177 +2505,334 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Marcin Mikołajczak" refreshedDate="39262.352900694445" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="68">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C69" sheet="AB-ABFSTT 4 - D"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Tura" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="34" count="34">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="18"/>
+        <n v="19"/>
+        <n v="20"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+        <n v="24"/>
+        <n v="25"/>
+        <n v="26"/>
+        <n v="27"/>
+        <n v="28"/>
+        <n v="29"/>
+        <n v="30"/>
+        <n v="31"/>
+        <n v="32"/>
+        <n v="33"/>
+        <n v="34"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Algorytm" numFmtId="0">
+      <sharedItems count="2">
+        <s v="AlfaBetaFSTT"/>
+        <s v="AlfaBeta"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Wierzchołki" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="555" maxValue="90092"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="34">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="17476"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="28350"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="54">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4514"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7899"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="23911"/>
+    <n v="4279"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="21683"/>
+    <n v="4190"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="24851"/>
+    <n v="5008"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
-    <n v="21010"/>
+    <n v="4706"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
-    <n v="16787"/>
+    <n v="5268"/>
   </r>
   <r>
     <x v="7"/>
     <x v="1"/>
-    <n v="14012"/>
+    <n v="8779"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
-    <n v="13704"/>
+    <n v="3871"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
-    <n v="29551"/>
+    <n v="6183"/>
   </r>
   <r>
     <x v="10"/>
     <x v="0"/>
-    <n v="5165"/>
+    <n v="6600"/>
   </r>
   <r>
     <x v="11"/>
     <x v="1"/>
-    <n v="18651"/>
+    <n v="15399"/>
   </r>
   <r>
     <x v="12"/>
     <x v="0"/>
-    <n v="11216"/>
+    <n v="4761"/>
   </r>
   <r>
     <x v="13"/>
     <x v="1"/>
-    <n v="90092"/>
+    <n v="9086"/>
   </r>
   <r>
     <x v="14"/>
     <x v="0"/>
-    <n v="22243"/>
+    <n v="3223"/>
   </r>
   <r>
     <x v="15"/>
     <x v="1"/>
-    <n v="30744"/>
+    <n v="4073"/>
   </r>
   <r>
     <x v="16"/>
     <x v="0"/>
-    <n v="7985"/>
+    <n v="4069"/>
   </r>
   <r>
     <x v="17"/>
     <x v="1"/>
-    <n v="22825"/>
+    <n v="3230"/>
   </r>
   <r>
     <x v="18"/>
     <x v="0"/>
-    <n v="45674"/>
+    <n v="3456"/>
   </r>
   <r>
     <x v="19"/>
     <x v="1"/>
-    <n v="12662"/>
+    <n v="4662"/>
   </r>
   <r>
     <x v="20"/>
     <x v="0"/>
-    <n v="8129"/>
+    <n v="3433"/>
   </r>
   <r>
     <x v="21"/>
     <x v="1"/>
-    <n v="67998"/>
+    <n v="6900"/>
   </r>
   <r>
     <x v="22"/>
     <x v="0"/>
-    <n v="15978"/>
+    <n v="2869"/>
   </r>
   <r>
     <x v="23"/>
     <x v="1"/>
-    <n v="11178"/>
+    <n v="1385"/>
   </r>
   <r>
     <x v="24"/>
     <x v="0"/>
-    <n v="2197"/>
+    <n v="321"/>
   </r>
   <r>
     <x v="25"/>
     <x v="1"/>
-    <n v="1634"/>
+    <n v="449"/>
   </r>
   <r>
     <x v="26"/>
     <x v="0"/>
-    <n v="2046"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="1"/>
-    <n v="6836"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="0"/>
-    <n v="2210"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="1"/>
-    <n v="14323"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="0"/>
-    <n v="16881"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="1"/>
-    <n v="9298"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="0"/>
-    <n v="555"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="1"/>
-    <n v="6577"/>
+    <n v="294"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4257"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5960"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="4148"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="4433"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="4959"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="4264"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="8769"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="2923"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="4368"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="4144"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="8866"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="2922"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="6182"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="3505"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="5612"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="2742"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="4806"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="2651"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="1"/>
+    <n v="5128"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="3827"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="1"/>
+    <n v="7670"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="5136"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="3170"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="1339"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="1"/>
+    <n v="278"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="156"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="1"/>
+    <n v="264"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -2640,547 +2842,617 @@
   <r>
     <x v="0"/>
     <x v="0"/>
+    <n v="4515"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="5960"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4224"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="4433"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="4160"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="4264"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="4660"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="2923"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="3734"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="4144"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="5977"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="2922"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="4182"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="3505"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="3039"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="2742"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="3018"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="1"/>
+    <n v="2651"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="2694"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="1"/>
+    <n v="3827"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="3134"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="5136"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="2621"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="1"/>
+    <n v="1339"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="333"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="1"/>
+    <n v="156"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="294"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
     <n v="4514"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
-    <n v="7899"/>
+    <x v="0"/>
+    <n v="4753"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="4279"/>
   </r>
   <r>
     <x v="3"/>
-    <x v="1"/>
-    <n v="4190"/>
+    <x v="0"/>
+    <n v="4547"/>
   </r>
   <r>
     <x v="4"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="5008"/>
   </r>
   <r>
     <x v="5"/>
-    <x v="1"/>
-    <n v="4706"/>
+    <x v="0"/>
+    <n v="4442"/>
   </r>
   <r>
     <x v="6"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="5268"/>
   </r>
   <r>
     <x v="7"/>
-    <x v="1"/>
-    <n v="8779"/>
+    <x v="0"/>
+    <n v="2932"/>
   </r>
   <r>
     <x v="8"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="3871"/>
   </r>
   <r>
     <x v="9"/>
-    <x v="1"/>
-    <n v="6183"/>
+    <x v="0"/>
+    <n v="3832"/>
   </r>
   <r>
     <x v="10"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="6600"/>
   </r>
   <r>
     <x v="11"/>
-    <x v="1"/>
-    <n v="15399"/>
+    <x v="0"/>
+    <n v="2921"/>
   </r>
   <r>
     <x v="12"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="4761"/>
   </r>
   <r>
     <x v="13"/>
-    <x v="1"/>
-    <n v="9086"/>
+    <x v="0"/>
+    <n v="3430"/>
   </r>
   <r>
     <x v="14"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="3223"/>
   </r>
   <r>
     <x v="15"/>
-    <x v="1"/>
-    <n v="4073"/>
+    <x v="0"/>
+    <n v="2743"/>
   </r>
   <r>
     <x v="16"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="4069"/>
   </r>
   <r>
     <x v="17"/>
-    <x v="1"/>
-    <n v="3230"/>
+    <x v="0"/>
+    <n v="2571"/>
   </r>
   <r>
     <x v="18"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="3456"/>
   </r>
   <r>
     <x v="19"/>
-    <x v="1"/>
-    <n v="4662"/>
+    <x v="0"/>
+    <n v="3082"/>
   </r>
   <r>
     <x v="20"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="3433"/>
   </r>
   <r>
     <x v="21"/>
-    <x v="1"/>
-    <n v="6900"/>
+    <x v="0"/>
+    <n v="3526"/>
   </r>
   <r>
     <x v="22"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="2869"/>
   </r>
   <r>
     <x v="23"/>
-    <x v="1"/>
-    <n v="1385"/>
+    <x v="0"/>
+    <n v="1192"/>
   </r>
   <r>
     <x v="24"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="321"/>
   </r>
   <r>
     <x v="25"/>
-    <x v="1"/>
-    <n v="449"/>
+    <x v="0"/>
+    <n v="156"/>
   </r>
   <r>
     <x v="26"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="294"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="4257"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="5960"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="4148"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="4433"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="4959"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="4264"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="8769"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="2923"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="4368"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="0"/>
-    <n v="4144"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="1"/>
-    <n v="8866"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="0"/>
-    <n v="2922"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="1"/>
-    <n v="6182"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="0"/>
-    <n v="3505"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="1"/>
-    <n v="5612"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="0"/>
-    <n v="2742"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="1"/>
-    <n v="4806"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="0"/>
-    <n v="2651"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="1"/>
-    <n v="5128"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="0"/>
-    <n v="3827"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="1"/>
-    <n v="7670"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="0"/>
-    <n v="5136"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="1"/>
-    <n v="3170"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="0"/>
-    <n v="1339"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="1"/>
-    <n v="278"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <x v="0"/>
-    <n v="156"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <x v="1"/>
-    <n v="264"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="54">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4515"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="5960"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="68">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16269"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="27658"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="4224"/>
+    <n v="19810"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="4433"/>
+    <n v="22427"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="4160"/>
+    <n v="24172"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
-    <n v="4264"/>
+    <n v="21856"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
-    <n v="4660"/>
+    <n v="17109"/>
   </r>
   <r>
     <x v="7"/>
     <x v="1"/>
-    <n v="2923"/>
+    <n v="12066"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
-    <n v="3734"/>
+    <n v="11459"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
-    <n v="4144"/>
+    <n v="26289"/>
   </r>
   <r>
     <x v="10"/>
     <x v="0"/>
-    <n v="5977"/>
+    <n v="6579"/>
   </r>
   <r>
     <x v="11"/>
     <x v="1"/>
-    <n v="2922"/>
+    <n v="22934"/>
   </r>
   <r>
     <x v="12"/>
     <x v="0"/>
-    <n v="4182"/>
+    <n v="10466"/>
   </r>
   <r>
     <x v="13"/>
     <x v="1"/>
-    <n v="3505"/>
+    <n v="8683"/>
   </r>
   <r>
     <x v="14"/>
     <x v="0"/>
-    <n v="3039"/>
+    <n v="21156"/>
   </r>
   <r>
     <x v="15"/>
     <x v="1"/>
-    <n v="2742"/>
+    <n v="16626"/>
   </r>
   <r>
     <x v="16"/>
     <x v="0"/>
-    <n v="3018"/>
+    <n v="6735"/>
   </r>
   <r>
     <x v="17"/>
     <x v="1"/>
-    <n v="2651"/>
+    <n v="18835"/>
   </r>
   <r>
     <x v="18"/>
     <x v="0"/>
-    <n v="2694"/>
+    <n v="36308"/>
   </r>
   <r>
     <x v="19"/>
     <x v="1"/>
-    <n v="3827"/>
+    <n v="9301"/>
   </r>
   <r>
     <x v="20"/>
     <x v="0"/>
-    <n v="3134"/>
+    <n v="7733"/>
   </r>
   <r>
     <x v="21"/>
     <x v="1"/>
-    <n v="5136"/>
+    <n v="1768"/>
   </r>
   <r>
     <x v="22"/>
     <x v="0"/>
-    <n v="2621"/>
+    <n v="15263"/>
   </r>
   <r>
     <x v="23"/>
     <x v="1"/>
-    <n v="1339"/>
+    <n v="5849"/>
   </r>
   <r>
     <x v="24"/>
     <x v="0"/>
-    <n v="333"/>
+    <n v="2010"/>
   </r>
   <r>
     <x v="25"/>
     <x v="1"/>
-    <n v="156"/>
+    <n v="1080"/>
   </r>
   <r>
     <x v="26"/>
     <x v="0"/>
-    <n v="294"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="4514"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="4753"/>
+    <n v="1765"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="1"/>
+    <n v="4154"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="1962"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="1"/>
+    <n v="3995"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="11731"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="2150"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="0"/>
+    <n v="594"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="1"/>
+    <n v="1244"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="17476"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="26104"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="4279"/>
+    <n v="23911"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="4547"/>
+    <n v="22921"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="5008"/>
+    <n v="24851"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
-    <n v="4442"/>
+    <n v="21827"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
-    <n v="5268"/>
+    <n v="16787"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
-    <n v="2932"/>
+    <n v="11465"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
-    <n v="3871"/>
+    <n v="13704"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
-    <n v="3832"/>
+    <n v="26800"/>
   </r>
   <r>
     <x v="10"/>
     <x v="1"/>
-    <n v="6600"/>
+    <n v="5165"/>
   </r>
   <r>
     <x v="11"/>
     <x v="0"/>
-    <n v="2921"/>
+    <n v="24688"/>
   </r>
   <r>
     <x v="12"/>
     <x v="1"/>
-    <n v="4761"/>
+    <n v="11216"/>
   </r>
   <r>
     <x v="13"/>
     <x v="0"/>
-    <n v="3430"/>
+    <n v="6172"/>
   </r>
   <r>
     <x v="14"/>
     <x v="1"/>
-    <n v="3223"/>
+    <n v="22243"/>
   </r>
   <r>
     <x v="15"/>
     <x v="0"/>
-    <n v="2743"/>
+    <n v="17584"/>
   </r>
   <r>
     <x v="16"/>
     <x v="1"/>
-    <n v="4069"/>
+    <n v="7985"/>
   </r>
   <r>
     <x v="17"/>
     <x v="0"/>
-    <n v="2571"/>
+    <n v="17039"/>
   </r>
   <r>
     <x v="18"/>
     <x v="1"/>
-    <n v="3456"/>
+    <n v="45674"/>
   </r>
   <r>
     <x v="19"/>
     <x v="0"/>
-    <n v="3082"/>
+    <n v="8372"/>
   </r>
   <r>
     <x v="20"/>
     <x v="1"/>
-    <n v="3433"/>
+    <n v="8129"/>
   </r>
   <r>
     <x v="21"/>
     <x v="0"/>
-    <n v="3526"/>
+    <n v="1827"/>
   </r>
   <r>
     <x v="22"/>
     <x v="1"/>
-    <n v="2869"/>
+    <n v="15978"/>
   </r>
   <r>
     <x v="23"/>
     <x v="0"/>
-    <n v="1192"/>
+    <n v="5304"/>
   </r>
   <r>
     <x v="24"/>
     <x v="1"/>
-    <n v="321"/>
+    <n v="2197"/>
   </r>
   <r>
     <x v="25"/>
     <x v="0"/>
-    <n v="156"/>
+    <n v="1050"/>
   </r>
   <r>
     <x v="26"/>
     <x v="1"/>
-    <n v="294"/>
+    <n v="2046"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="0"/>
+    <n v="4119"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="1"/>
+    <n v="2210"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="0"/>
+    <n v="3117"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="1"/>
+    <n v="16881"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="2152"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="1"/>
+    <n v="555"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="0"/>
+    <n v="1149"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -3190,342 +3462,342 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="16269"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="17476"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="28350"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="23911"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="21683"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="24851"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="21010"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="16787"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="14012"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="13704"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="29551"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="5165"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="18651"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="11216"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="90092"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="22243"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="30744"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="7985"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="1"/>
+    <n v="22825"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="45674"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="1"/>
+    <n v="12662"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="8129"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="67998"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="15978"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="1"/>
+    <n v="11178"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="2197"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="1"/>
+    <n v="1634"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="2046"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="1"/>
+    <n v="6836"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="2210"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="1"/>
+    <n v="14323"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="16881"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="9298"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="0"/>
+    <n v="555"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="1"/>
+    <n v="6577"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="16029"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
     <n v="27658"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
-    <n v="19810"/>
+    <x v="1"/>
+    <n v="38474"/>
   </r>
   <r>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
     <n v="22427"/>
   </r>
   <r>
     <x v="4"/>
-    <x v="0"/>
-    <n v="24172"/>
+    <x v="1"/>
+    <n v="37584"/>
   </r>
   <r>
     <x v="5"/>
-    <x v="1"/>
+    <x v="0"/>
     <n v="21856"/>
   </r>
   <r>
     <x v="6"/>
-    <x v="0"/>
-    <n v="17109"/>
+    <x v="1"/>
+    <n v="26432"/>
   </r>
   <r>
     <x v="7"/>
-    <x v="1"/>
+    <x v="0"/>
     <n v="12066"/>
   </r>
   <r>
     <x v="8"/>
-    <x v="0"/>
-    <n v="11459"/>
+    <x v="1"/>
+    <n v="16889"/>
   </r>
   <r>
     <x v="9"/>
-    <x v="1"/>
+    <x v="0"/>
     <n v="26289"/>
   </r>
   <r>
     <x v="10"/>
-    <x v="0"/>
-    <n v="6579"/>
+    <x v="1"/>
+    <n v="34877"/>
   </r>
   <r>
     <x v="11"/>
-    <x v="1"/>
+    <x v="0"/>
     <n v="22934"/>
   </r>
   <r>
     <x v="12"/>
-    <x v="0"/>
-    <n v="10466"/>
+    <x v="1"/>
+    <n v="27310"/>
   </r>
   <r>
     <x v="13"/>
-    <x v="1"/>
+    <x v="0"/>
     <n v="8683"/>
   </r>
   <r>
     <x v="14"/>
-    <x v="0"/>
-    <n v="21156"/>
+    <x v="1"/>
+    <n v="27901"/>
   </r>
   <r>
     <x v="15"/>
-    <x v="1"/>
+    <x v="0"/>
     <n v="16626"/>
   </r>
   <r>
     <x v="16"/>
-    <x v="0"/>
-    <n v="6735"/>
+    <x v="1"/>
+    <n v="12971"/>
   </r>
   <r>
     <x v="17"/>
-    <x v="1"/>
+    <x v="0"/>
     <n v="18835"/>
   </r>
   <r>
     <x v="18"/>
-    <x v="0"/>
-    <n v="36308"/>
+    <x v="1"/>
+    <n v="10268"/>
   </r>
   <r>
     <x v="19"/>
-    <x v="1"/>
+    <x v="0"/>
     <n v="9301"/>
   </r>
   <r>
     <x v="20"/>
-    <x v="0"/>
-    <n v="7733"/>
+    <x v="1"/>
+    <n v="50244"/>
   </r>
   <r>
     <x v="21"/>
-    <x v="1"/>
+    <x v="0"/>
     <n v="1768"/>
   </r>
   <r>
     <x v="22"/>
-    <x v="0"/>
-    <n v="15263"/>
+    <x v="1"/>
+    <n v="20019"/>
   </r>
   <r>
     <x v="23"/>
-    <x v="1"/>
+    <x v="0"/>
     <n v="5849"/>
   </r>
   <r>
     <x v="24"/>
-    <x v="0"/>
-    <n v="2010"/>
+    <x v="1"/>
+    <n v="7610"/>
   </r>
   <r>
     <x v="25"/>
-    <x v="1"/>
+    <x v="0"/>
     <n v="1080"/>
   </r>
   <r>
     <x v="26"/>
-    <x v="0"/>
-    <n v="1765"/>
+    <x v="1"/>
+    <n v="3191"/>
   </r>
   <r>
     <x v="27"/>
-    <x v="1"/>
+    <x v="0"/>
     <n v="4154"/>
   </r>
   <r>
     <x v="28"/>
-    <x v="0"/>
-    <n v="1962"/>
+    <x v="1"/>
+    <n v="7120"/>
   </r>
   <r>
     <x v="29"/>
-    <x v="1"/>
+    <x v="0"/>
     <n v="3995"/>
   </r>
   <r>
     <x v="30"/>
-    <x v="0"/>
-    <n v="11731"/>
+    <x v="1"/>
+    <n v="23838"/>
   </r>
   <r>
     <x v="31"/>
-    <x v="1"/>
-    <n v="2150"/>
+    <x v="0"/>
+    <n v="1593"/>
   </r>
   <r>
     <x v="32"/>
-    <x v="0"/>
-    <n v="594"/>
+    <x v="1"/>
+    <n v="11120"/>
   </r>
   <r>
     <x v="33"/>
-    <x v="1"/>
-    <n v="1244"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="17476"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="26104"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="23911"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="22921"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="24851"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="21827"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="16787"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="11465"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="13704"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="0"/>
-    <n v="26800"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="1"/>
-    <n v="5165"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="0"/>
-    <n v="24688"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="1"/>
-    <n v="11216"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="0"/>
-    <n v="6172"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="1"/>
-    <n v="22243"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="0"/>
-    <n v="17584"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="1"/>
-    <n v="7985"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="0"/>
-    <n v="17039"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="1"/>
-    <n v="45674"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="0"/>
-    <n v="8372"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="1"/>
-    <n v="8129"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="0"/>
-    <n v="1827"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="1"/>
-    <n v="15978"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="0"/>
-    <n v="5304"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="1"/>
-    <n v="2197"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <x v="0"/>
-    <n v="1050"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <x v="1"/>
-    <n v="2046"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="0"/>
-    <n v="4119"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="1"/>
-    <n v="2210"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="0"/>
-    <n v="3117"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="1"/>
-    <n v="16881"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="0"/>
-    <n v="2152"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="1"/>
-    <n v="555"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="0"/>
-    <n v="1149"/>
+    <x v="0"/>
+    <n v="1163"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -3712,7 +3984,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna5" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:D39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -5656,10 +5928,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5668,6 +5940,7 @@
     <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6022,7 +6295,7 @@
         <v>16881</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6033,7 +6306,7 @@
         <v>9298</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6044,7 +6317,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6055,174 +6328,384 @@
         <v>6577</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>16029</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>27658</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>38474</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>22427</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>37584</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>21856</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>26432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>12066</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>16889</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>26289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>34877</v>
+      </c>
+      <c r="D46">
+        <v>3487724</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>22934</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>27310</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>8683</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>27901</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>16626</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>12971</v>
+      </c>
+      <c r="D52">
+        <v>1297124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>18835</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>10268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>9301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>50244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>22</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>23</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>20019</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>24</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>5849</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>7610</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>26</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>27</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>28</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>29</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>7120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>30</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>31</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>23838</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>32</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>33</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>11120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>34</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>1163</v>
       </c>
     </row>
   </sheetData>
@@ -6234,8 +6717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6272,12 +6755,14 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>16029</v>
+      </c>
       <c r="C5" s="1">
         <v>17476</v>
       </c>
       <c r="D5" s="1">
-        <v>17476</v>
+        <v>33505</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6287,21 +6772,25 @@
       <c r="B6" s="1">
         <v>28350</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>27658</v>
+      </c>
       <c r="D6" s="1">
-        <v>28350</v>
+        <v>56008</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>38474</v>
+      </c>
       <c r="C7" s="1">
         <v>23911</v>
       </c>
       <c r="D7" s="1">
-        <v>23911</v>
+        <v>62385</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6311,21 +6800,25 @@
       <c r="B8" s="1">
         <v>21683</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>22427</v>
+      </c>
       <c r="D8" s="1">
-        <v>21683</v>
+        <v>44110</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>37584</v>
+      </c>
       <c r="C9" s="1">
         <v>24851</v>
       </c>
       <c r="D9" s="1">
-        <v>24851</v>
+        <v>62435</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6335,21 +6828,25 @@
       <c r="B10" s="1">
         <v>21010</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>21856</v>
+      </c>
       <c r="D10" s="1">
-        <v>21010</v>
+        <v>42866</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <v>26432</v>
+      </c>
       <c r="C11" s="1">
         <v>16787</v>
       </c>
       <c r="D11" s="1">
-        <v>16787</v>
+        <v>43219</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6359,21 +6856,25 @@
       <c r="B12" s="1">
         <v>14012</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>12066</v>
+      </c>
       <c r="D12" s="1">
-        <v>14012</v>
+        <v>26078</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1">
+        <v>16889</v>
+      </c>
       <c r="C13" s="1">
         <v>13704</v>
       </c>
       <c r="D13" s="1">
-        <v>13704</v>
+        <v>30593</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6383,21 +6884,25 @@
       <c r="B14" s="1">
         <v>29551</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>26289</v>
+      </c>
       <c r="D14" s="1">
-        <v>29551</v>
+        <v>55840</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1">
+        <v>34877</v>
+      </c>
       <c r="C15" s="1">
         <v>5165</v>
       </c>
       <c r="D15" s="1">
-        <v>5165</v>
+        <v>40042</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6407,21 +6912,25 @@
       <c r="B16" s="1">
         <v>18651</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>22934</v>
+      </c>
       <c r="D16" s="1">
-        <v>18651</v>
+        <v>41585</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1">
+        <v>27310</v>
+      </c>
       <c r="C17" s="1">
         <v>11216</v>
       </c>
       <c r="D17" s="1">
-        <v>11216</v>
+        <v>38526</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6431,21 +6940,25 @@
       <c r="B18" s="1">
         <v>90092</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>8683</v>
+      </c>
       <c r="D18" s="1">
-        <v>90092</v>
+        <v>98775</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1">
+        <v>27901</v>
+      </c>
       <c r="C19" s="1">
         <v>22243</v>
       </c>
       <c r="D19" s="1">
-        <v>22243</v>
+        <v>50144</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6455,21 +6968,25 @@
       <c r="B20" s="1">
         <v>30744</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>16626</v>
+      </c>
       <c r="D20" s="1">
-        <v>30744</v>
+        <v>47370</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1">
+        <v>12971</v>
+      </c>
       <c r="C21" s="1">
         <v>7985</v>
       </c>
       <c r="D21" s="1">
-        <v>7985</v>
+        <v>20956</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6479,21 +6996,25 @@
       <c r="B22" s="1">
         <v>22825</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1">
+        <v>18835</v>
+      </c>
       <c r="D22" s="1">
-        <v>22825</v>
+        <v>41660</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1">
+        <v>10268</v>
+      </c>
       <c r="C23" s="1">
         <v>45674</v>
       </c>
       <c r="D23" s="1">
-        <v>45674</v>
+        <v>55942</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6503,21 +7024,25 @@
       <c r="B24" s="1">
         <v>12662</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1">
+        <v>9301</v>
+      </c>
       <c r="D24" s="1">
-        <v>12662</v>
+        <v>21963</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>21</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1">
+        <v>50244</v>
+      </c>
       <c r="C25" s="1">
         <v>8129</v>
       </c>
       <c r="D25" s="1">
-        <v>8129</v>
+        <v>58373</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6527,21 +7052,25 @@
       <c r="B26" s="1">
         <v>67998</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1">
+        <v>1768</v>
+      </c>
       <c r="D26" s="1">
-        <v>67998</v>
+        <v>69766</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3">
         <v>23</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1">
+        <v>20019</v>
+      </c>
       <c r="C27" s="1">
         <v>15978</v>
       </c>
       <c r="D27" s="1">
-        <v>15978</v>
+        <v>35997</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6551,21 +7080,25 @@
       <c r="B28" s="1">
         <v>11178</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1">
+        <v>5849</v>
+      </c>
       <c r="D28" s="1">
-        <v>11178</v>
+        <v>17027</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>25</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1">
+        <v>7610</v>
+      </c>
       <c r="C29" s="1">
         <v>2197</v>
       </c>
       <c r="D29" s="1">
-        <v>2197</v>
+        <v>9807</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6575,21 +7108,25 @@
       <c r="B30" s="1">
         <v>1634</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1">
+        <v>1080</v>
+      </c>
       <c r="D30" s="1">
-        <v>1634</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3">
         <v>27</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1">
+        <v>3191</v>
+      </c>
       <c r="C31" s="1">
         <v>2046</v>
       </c>
       <c r="D31" s="1">
-        <v>2046</v>
+        <v>5237</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6599,21 +7136,25 @@
       <c r="B32" s="1">
         <v>6836</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1">
+        <v>4154</v>
+      </c>
       <c r="D32" s="1">
-        <v>6836</v>
+        <v>10990</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3">
         <v>29</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1">
+        <v>7120</v>
+      </c>
       <c r="C33" s="1">
         <v>2210</v>
       </c>
       <c r="D33" s="1">
-        <v>2210</v>
+        <v>9330</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6623,21 +7164,25 @@
       <c r="B34" s="1">
         <v>14323</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1">
+        <v>3995</v>
+      </c>
       <c r="D34" s="1">
-        <v>14323</v>
+        <v>18318</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3">
         <v>31</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1">
+        <v>23838</v>
+      </c>
       <c r="C35" s="1">
         <v>16881</v>
       </c>
       <c r="D35" s="1">
-        <v>16881</v>
+        <v>40719</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -6647,21 +7192,25 @@
       <c r="B36" s="1">
         <v>9298</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1">
+        <v>1593</v>
+      </c>
       <c r="D36" s="1">
-        <v>9298</v>
+        <v>10891</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3">
         <v>33</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="1">
+        <v>11120</v>
+      </c>
       <c r="C37" s="1">
         <v>555</v>
       </c>
       <c r="D37" s="1">
-        <v>555</v>
+        <v>11675</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6671,9 +7220,11 @@
       <c r="B38" s="1">
         <v>6577</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1">
+        <v>1163</v>
+      </c>
       <c r="D38" s="1">
-        <v>6577</v>
+        <v>7740</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6681,13 +7232,13 @@
         <v>5</v>
       </c>
       <c r="B39" s="1">
-        <v>407424</v>
+        <v>779301</v>
       </c>
       <c r="C39" s="1">
-        <v>237008</v>
+        <v>443285</v>
       </c>
       <c r="D39" s="1">
-        <v>644432</v>
+        <v>1222586</v>
       </c>
     </row>
   </sheetData>
